--- a/Testing/Wind tunnel/Wind tunnel OPCN2 Test #2 6th Sept.xlsx
+++ b/Testing/Wind tunnel/Wind tunnel OPCN2 Test #2 6th Sept.xlsx
@@ -612,7 +612,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -626,13 +626,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Particle</a:t>
+              <a:t>Particle Distribution Analysis</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Distribution Analysis</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-NZ"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -649,7 +644,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9249,7 +9244,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9263,13 +9258,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-NZ" baseline="0"/>
-                  <a:t> (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-NZ"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9286,7 +9276,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9324,7 +9314,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9374,7 +9364,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9406,7 +9396,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9438,7 +9428,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9480,7 +9470,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9520,7 +9510,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -9554,7 +9544,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9586,7 +9576,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11497,7 +11487,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11529,7 +11519,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11567,7 +11557,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11614,7 +11604,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11627,14 +11617,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-NZ"/>
                   <a:t>Concentration (mg/m^3)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-NZ" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11651,7 +11636,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11689,7 +11674,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11731,7 +11716,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11771,7 +11756,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -16156,7 +16141,7 @@
   <dimension ref="A1:K278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
